--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc101_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc101_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5388" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +153,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +183,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="6" customFormat="true">
+      <c r="A1" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="6">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +230,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +276,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -361,10 +385,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -408,28 +432,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="2">
+      <c r="C10" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="2">
+      <c r="F10" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="2">
+      <c r="G10" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="2">
+      <c r="H10" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -454,28 +478,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="2">
+      <c r="I12" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -563,10 +587,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="2" t="s">
+      <c r="J15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -610,28 +634,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="2">
+      <c r="A17" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s" s="2">
+      <c r="C17" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -656,28 +680,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="2">
+      <c r="D19" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="2">
+      <c r="I19" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -765,10 +789,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="2" t="s">
+      <c r="J22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -812,28 +836,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="2">
+      <c r="A24" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="2">
+      <c r="C24" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -858,28 +882,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="2">
+      <c r="C26" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="2">
+      <c r="D26" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="2">
+      <c r="I26" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -967,10 +991,10 @@
       <c r="I29">
         <f>((C29-C28)^2+(D29- D28)^2)^.5</f>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="2" t="s">
+      <c r="J29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L29" t="n">
@@ -1014,28 +1038,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="2">
+      <c r="A31" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C31" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s" s="2">
+      <c r="C31" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1060,28 +1084,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C33" t="s" s="2">
+      <c r="C33" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D33" t="s" s="2">
+      <c r="D33" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I33" t="s" s="2">
+      <c r="I33" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1169,10 +1193,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="2" t="s">
+      <c r="J36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1216,28 +1240,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="2">
+      <c r="A38" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="2">
+      <c r="C38" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1262,28 +1286,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="2">
+      <c r="C40" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="2">
+      <c r="D40" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="2">
+      <c r="I40" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1371,10 +1395,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="2" t="s">
+      <c r="J43" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1418,28 +1442,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="2">
+      <c r="A45" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s" s="2">
+      <c r="C45" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1464,28 +1488,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="2">
+      <c r="C47" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="2">
+      <c r="D47" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="2">
+      <c r="I47" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1573,10 +1597,10 @@
       <c r="I50">
         <f>((C50-C49)^2+(D50- D49)^2)^.5</f>
       </c>
-      <c r="J50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="2" t="s">
+      <c r="J50" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L50" t="n">
@@ -1620,28 +1644,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="2">
+      <c r="A52" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C52" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D52" t="s" s="2">
+      <c r="C52" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1666,28 +1690,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C54" t="s" s="2">
+      <c r="C54" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D54" t="s" s="2">
+      <c r="D54" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I54" t="s" s="2">
+      <c r="I54" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1775,10 +1799,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="2" t="s">
+      <c r="J57" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1822,28 +1846,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="2">
+      <c r="A59" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="2">
+      <c r="C59" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1868,28 +1892,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="2">
+      <c r="C61" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="2">
+      <c r="D61" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="2">
+      <c r="I61" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1977,10 +2001,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="2" t="s">
+      <c r="J64" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2024,28 +2048,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="2">
+      <c r="A66" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="2">
+      <c r="C66" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2070,28 +2094,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="2">
+      <c r="C68" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="2">
+      <c r="D68" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="2">
+      <c r="I68" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2179,10 +2203,10 @@
       <c r="I71">
         <f>((C71-C70)^2+(D71- D70)^2)^.5</f>
       </c>
-      <c r="J71" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K71" s="2" t="s">
+      <c r="J71" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K71" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L71" t="n">
@@ -2226,28 +2250,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="2">
+      <c r="A73" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C73" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D73" t="s" s="2">
+      <c r="C73" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2272,28 +2296,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="B75" t="s" s="2">
+      <c r="B75" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C75" t="s" s="2">
+      <c r="C75" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D75" t="s" s="2">
+      <c r="D75" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E75" t="s" s="2">
+      <c r="E75" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F75" t="s" s="2">
+      <c r="F75" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G75" t="s" s="2">
+      <c r="G75" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H75" t="s" s="2">
+      <c r="H75" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I75" t="s" s="2">
+      <c r="I75" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2410,10 +2434,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K79" s="2" t="s">
+      <c r="J79" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2457,28 +2481,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="2">
+      <c r="A81" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D81" t="s" s="2">
+      <c r="C81" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2503,28 +2527,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="2">
+      <c r="C83" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="2">
+      <c r="D83" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="2">
+      <c r="I83" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2612,10 +2636,10 @@
       <c r="I86">
         <f>((C86-C85)^2+(D86- D85)^2)^.5</f>
       </c>
-      <c r="J86" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K86" s="2" t="s">
+      <c r="J86" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K86" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L86" t="n">
@@ -2659,28 +2683,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="2">
+      <c r="A88" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C88" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D88" t="s" s="2">
+      <c r="C88" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D88" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2705,28 +2729,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C90" t="s" s="2">
+      <c r="C90" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D90" t="s" s="2">
+      <c r="D90" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I90" t="s" s="2">
+      <c r="I90" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2814,10 +2838,10 @@
       <c r="I93">
         <f>((C93-C92)^2+(D93- D92)^2)^.5</f>
       </c>
-      <c r="J93" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K93" s="2" t="s">
+      <c r="J93" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K93" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L93" t="n">
@@ -2861,28 +2885,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="2">
+      <c r="A95" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C95" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D95" t="s" s="2">
+      <c r="C95" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2907,28 +2931,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C97" t="s" s="2">
+      <c r="C97" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D97" t="s" s="2">
+      <c r="D97" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I97" t="s" s="2">
+      <c r="I97" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3016,10 +3040,10 @@
       <c r="I100">
         <f>((C100-C99)^2+(D100- D99)^2)^.5</f>
       </c>
-      <c r="J100" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K100" s="2" t="s">
+      <c r="J100" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K100" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L100" t="n">
@@ -3063,28 +3087,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="2">
+      <c r="A102" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C102" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D102" t="s" s="2">
+      <c r="C102" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3109,28 +3133,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C104" t="s" s="2">
+      <c r="C104" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D104" t="s" s="2">
+      <c r="D104" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I104" t="s" s="2">
+      <c r="I104" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3218,10 +3242,10 @@
       <c r="I107">
         <f>((C107-C106)^2+(D107- D106)^2)^.5</f>
       </c>
-      <c r="J107" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K107" s="2" t="s">
+      <c r="J107" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K107" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L107" t="n">
@@ -3265,28 +3289,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="s" s="2">
+      <c r="A109" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C109" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D109" t="s" s="2">
+      <c r="C109" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D109" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3311,28 +3335,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C111" t="s" s="2">
+      <c r="C111" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D111" t="s" s="2">
+      <c r="D111" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I111" t="s" s="2">
+      <c r="I111" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3420,10 +3444,10 @@
       <c r="I114">
         <f>((C114-C113)^2+(D114- D113)^2)^.5</f>
       </c>
-      <c r="J114" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K114" s="2" t="s">
+      <c r="J114" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K114" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L114" t="n">
@@ -3467,28 +3491,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s" s="2">
+      <c r="A116" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C116" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D116" t="s" s="2">
+      <c r="C116" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3513,28 +3537,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C118" t="s" s="2">
+      <c r="C118" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D118" t="s" s="2">
+      <c r="D118" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I118" t="s" s="2">
+      <c r="I118" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3622,10 +3646,10 @@
       <c r="I121">
         <f>((C121-C120)^2+(D121- D120)^2)^.5</f>
       </c>
-      <c r="J121" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K121" s="2" t="s">
+      <c r="J121" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K121" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L121" t="n">
@@ -3669,28 +3693,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="2">
+      <c r="A123" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C123" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D123" t="s" s="2">
+      <c r="C123" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3715,28 +3739,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C125" t="s" s="2">
+      <c r="C125" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D125" t="s" s="2">
+      <c r="D125" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I125" t="s" s="2">
+      <c r="I125" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3824,10 +3848,10 @@
       <c r="I128">
         <f>((C128-C127)^2+(D128- D127)^2)^.5</f>
       </c>
-      <c r="J128" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K128" s="2" t="s">
+      <c r="J128" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K128" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L128" t="n">
@@ -3871,28 +3895,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s" s="2">
+      <c r="A130" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B130" t="s" s="2">
+      <c r="B130" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C130" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D130" t="s" s="2">
+      <c r="C130" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D130" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E130" t="s" s="2">
+      <c r="E130" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F130" t="s" s="2">
+      <c r="F130" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G130" t="s" s="2">
+      <c r="G130" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H130" t="s" s="2">
+      <c r="H130" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3917,28 +3941,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C132" t="s" s="2">
+      <c r="C132" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D132" t="s" s="2">
+      <c r="D132" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I132" t="s" s="2">
+      <c r="I132" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4026,10 +4050,10 @@
       <c r="I135">
         <f>((C135-C134)^2+(D135- D134)^2)^.5</f>
       </c>
-      <c r="J135" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K135" s="2" t="s">
+      <c r="J135" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K135" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L135" t="n">
@@ -4073,28 +4097,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s" s="2">
+      <c r="A137" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C137" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D137" t="s" s="2">
+      <c r="C137" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D137" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4119,28 +4143,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C139" t="s" s="2">
+      <c r="C139" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D139" t="s" s="2">
+      <c r="D139" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I139" t="s" s="2">
+      <c r="I139" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4228,10 +4252,10 @@
       <c r="I142">
         <f>((C142-C141)^2+(D142- D141)^2)^.5</f>
       </c>
-      <c r="J142" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K142" s="2" t="s">
+      <c r="J142" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K142" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L142" t="n">
@@ -4275,28 +4299,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="2">
+      <c r="A144" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C144" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D144" t="s" s="2">
+      <c r="C144" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D144" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4321,28 +4345,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C146" t="s" s="2">
+      <c r="C146" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D146" t="s" s="2">
+      <c r="D146" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I146" t="s" s="2">
+      <c r="I146" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4430,10 +4454,10 @@
       <c r="I149">
         <f>((C149-C148)^2+(D149- D148)^2)^.5</f>
       </c>
-      <c r="J149" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K149" s="2" t="s">
+      <c r="J149" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K149" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L149" t="n">
@@ -4477,28 +4501,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="s" s="2">
+      <c r="A151" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C151" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D151" t="s" s="2">
+      <c r="C151" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D151" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4523,28 +4547,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C153" t="s" s="2">
+      <c r="C153" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D153" t="s" s="2">
+      <c r="D153" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I153" t="s" s="2">
+      <c r="I153" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4632,10 +4656,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K156" s="2" t="s">
+      <c r="J156" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K156" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4679,28 +4703,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="2">
+      <c r="A158" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D158" t="s" s="2">
+      <c r="C158" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4725,28 +4749,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="2">
+      <c r="C160" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="2">
+      <c r="D160" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="2">
+      <c r="I160" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4863,10 +4887,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K164" s="2" t="s">
+      <c r="J164" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K164" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4910,28 +4934,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="2">
+      <c r="A166" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D166" t="s" s="2">
+      <c r="C166" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4956,28 +4980,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="2">
+      <c r="C168" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="2">
+      <c r="D168" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="2">
+      <c r="I168" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5065,10 +5089,10 @@
       <c r="I171">
         <f>((C171-C170)^2+(D171- D170)^2)^.5</f>
       </c>
-      <c r="J171" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K171" s="2" t="s">
+      <c r="J171" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K171" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L171" t="n">
@@ -5112,28 +5136,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="s" s="2">
+      <c r="A173" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C173" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D173" t="s" s="2">
+      <c r="C173" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D173" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5158,28 +5182,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="B175" t="s" s="2">
+      <c r="B175" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C175" t="s" s="2">
+      <c r="C175" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D175" t="s" s="2">
+      <c r="D175" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E175" t="s" s="2">
+      <c r="E175" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F175" t="s" s="2">
+      <c r="F175" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G175" t="s" s="2">
+      <c r="G175" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H175" t="s" s="2">
+      <c r="H175" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I175" t="s" s="2">
+      <c r="I175" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5267,10 +5291,10 @@
       <c r="I178">
         <f>((C178-C177)^2+(D178- D177)^2)^.5</f>
       </c>
-      <c r="J178" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K178" s="2" t="s">
+      <c r="J178" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K178" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L178" t="n">
@@ -5314,28 +5338,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s" s="2">
+      <c r="A180" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C180" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D180" t="s" s="2">
+      <c r="C180" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D180" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5360,28 +5384,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C182" t="s" s="2">
+      <c r="C182" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D182" t="s" s="2">
+      <c r="D182" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I182" t="s" s="2">
+      <c r="I182" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5469,10 +5493,10 @@
       <c r="I185">
         <f>((C185-C184)^2+(D185- D184)^2)^.5</f>
       </c>
-      <c r="J185" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K185" s="2" t="s">
+      <c r="J185" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K185" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L185" t="n">
@@ -5516,28 +5540,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="s" s="2">
+      <c r="A187" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C187" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D187" t="s" s="2">
+      <c r="C187" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D187" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5562,28 +5586,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C189" t="s" s="2">
+      <c r="C189" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D189" t="s" s="2">
+      <c r="D189" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I189" t="s" s="2">
+      <c r="I189" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5671,10 +5695,10 @@
       <c r="I192">
         <f>((C192-C191)^2+(D192- D191)^2)^.5</f>
       </c>
-      <c r="J192" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K192" s="2" t="s">
+      <c r="J192" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K192" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L192" t="n">
@@ -5718,28 +5742,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="s" s="2">
+      <c r="A194" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B194" t="s" s="2">
+      <c r="B194" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C194" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D194" t="s" s="2">
+      <c r="C194" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D194" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E194" t="s" s="2">
+      <c r="E194" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F194" t="s" s="2">
+      <c r="F194" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G194" t="s" s="2">
+      <c r="G194" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H194" t="s" s="2">
+      <c r="H194" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5764,28 +5788,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="B196" t="s" s="2">
+      <c r="B196" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C196" t="s" s="2">
+      <c r="C196" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D196" t="s" s="2">
+      <c r="D196" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E196" t="s" s="2">
+      <c r="E196" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G196" t="s" s="2">
+      <c r="G196" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H196" t="s" s="2">
+      <c r="H196" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I196" t="s" s="2">
+      <c r="I196" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5873,10 +5897,10 @@
       <c r="I199">
         <f>((C199-C198)^2+(D199- D198)^2)^.5</f>
       </c>
-      <c r="J199" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K199" s="2" t="s">
+      <c r="J199" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K199" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L199" t="n">
@@ -5920,28 +5944,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="s" s="2">
+      <c r="A201" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C201" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D201" t="s" s="2">
+      <c r="C201" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5966,28 +5990,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C203" t="s" s="2">
+      <c r="C203" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D203" t="s" s="2">
+      <c r="D203" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I203" t="s" s="2">
+      <c r="I203" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6075,10 +6099,10 @@
       <c r="I206">
         <f>((C206-C205)^2+(D206- D205)^2)^.5</f>
       </c>
-      <c r="J206" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K206" s="2" t="s">
+      <c r="J206" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K206" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L206" t="n">
@@ -6122,28 +6146,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="s" s="2">
+      <c r="A208" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C208" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D208" t="s" s="2">
+      <c r="C208" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D208" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6168,28 +6192,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="B210" t="s" s="2">
+      <c r="B210" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C210" t="s" s="2">
+      <c r="C210" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D210" t="s" s="2">
+      <c r="D210" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G210" t="s" s="2">
+      <c r="G210" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H210" t="s" s="2">
+      <c r="H210" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I210" t="s" s="2">
+      <c r="I210" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6277,10 +6301,10 @@
       <c r="I213">
         <f>((C213-C212)^2+(D213- D212)^2)^.5</f>
       </c>
-      <c r="J213" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K213" s="2" t="s">
+      <c r="J213" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K213" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L213" t="n">
@@ -6324,28 +6348,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="s" s="2">
+      <c r="A215" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B215" t="s" s="2">
+      <c r="B215" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C215" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D215" t="s" s="2">
+      <c r="C215" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D215" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E215" t="s" s="2">
+      <c r="E215" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F215" t="s" s="2">
+      <c r="F215" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G215" t="s" s="2">
+      <c r="G215" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H215" t="s" s="2">
+      <c r="H215" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6370,28 +6394,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="B217" t="s" s="2">
+      <c r="B217" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C217" t="s" s="2">
+      <c r="C217" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D217" t="s" s="2">
+      <c r="D217" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E217" t="s" s="2">
+      <c r="E217" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F217" t="s" s="2">
+      <c r="F217" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G217" t="s" s="2">
+      <c r="G217" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H217" t="s" s="2">
+      <c r="H217" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I217" t="s" s="2">
+      <c r="I217" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6479,10 +6503,10 @@
       <c r="I220">
         <f>((C220-C219)^2+(D220- D219)^2)^.5</f>
       </c>
-      <c r="J220" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K220" s="2" t="s">
+      <c r="J220" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K220" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L220" t="n">
@@ -6526,28 +6550,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="s" s="2">
+      <c r="A222" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B222" t="s" s="2">
+      <c r="B222" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C222" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D222" t="s" s="2">
+      <c r="C222" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D222" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E222" t="s" s="2">
+      <c r="E222" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F222" t="s" s="2">
+      <c r="F222" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G222" t="s" s="2">
+      <c r="G222" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H222" t="s" s="2">
+      <c r="H222" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6572,28 +6596,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="B224" t="s" s="2">
+      <c r="B224" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C224" t="s" s="2">
+      <c r="C224" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D224" t="s" s="2">
+      <c r="D224" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E224" t="s" s="2">
+      <c r="E224" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F224" t="s" s="2">
+      <c r="F224" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G224" t="s" s="2">
+      <c r="G224" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H224" t="s" s="2">
+      <c r="H224" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I224" t="s" s="2">
+      <c r="I224" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6681,10 +6705,10 @@
       <c r="I227">
         <f>((C227-C226)^2+(D227- D226)^2)^.5</f>
       </c>
-      <c r="J227" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K227" s="2" t="s">
+      <c r="J227" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K227" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L227" t="n">
@@ -6728,28 +6752,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="s" s="2">
+      <c r="A229" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B229" t="s" s="2">
+      <c r="B229" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C229" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D229" t="s" s="2">
+      <c r="C229" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D229" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E229" t="s" s="2">
+      <c r="E229" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F229" t="s" s="2">
+      <c r="F229" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G229" t="s" s="2">
+      <c r="G229" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H229" t="s" s="2">
+      <c r="H229" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6774,28 +6798,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="B231" t="s" s="2">
+      <c r="B231" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C231" t="s" s="2">
+      <c r="C231" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D231" t="s" s="2">
+      <c r="D231" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E231" t="s" s="2">
+      <c r="E231" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F231" t="s" s="2">
+      <c r="F231" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G231" t="s" s="2">
+      <c r="G231" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H231" t="s" s="2">
+      <c r="H231" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I231" t="s" s="2">
+      <c r="I231" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6883,10 +6907,10 @@
       <c r="I234">
         <f>((C234-C233)^2+(D234- D233)^2)^.5</f>
       </c>
-      <c r="J234" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K234" s="2" t="s">
+      <c r="J234" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K234" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L234" t="n">
@@ -6930,28 +6954,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="s" s="2">
+      <c r="A236" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B236" t="s" s="2">
+      <c r="B236" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C236" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D236" t="s" s="2">
+      <c r="C236" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D236" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E236" t="s" s="2">
+      <c r="E236" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F236" t="s" s="2">
+      <c r="F236" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G236" t="s" s="2">
+      <c r="G236" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H236" t="s" s="2">
+      <c r="H236" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6976,28 +7000,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="B238" t="s" s="2">
+      <c r="B238" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C238" t="s" s="2">
+      <c r="C238" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D238" t="s" s="2">
+      <c r="D238" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E238" t="s" s="2">
+      <c r="E238" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F238" t="s" s="2">
+      <c r="F238" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G238" t="s" s="2">
+      <c r="G238" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H238" t="s" s="2">
+      <c r="H238" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I238" t="s" s="2">
+      <c r="I238" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7085,10 +7109,10 @@
       <c r="I241">
         <f>((C241-C240)^2+(D241- D240)^2)^.5</f>
       </c>
-      <c r="J241" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K241" s="2" t="s">
+      <c r="J241" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K241" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L241" t="n">
@@ -7132,28 +7156,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="s" s="2">
+      <c r="A243" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B243" t="s" s="2">
+      <c r="B243" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C243" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D243" t="s" s="2">
+      <c r="C243" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D243" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E243" t="s" s="2">
+      <c r="E243" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F243" t="s" s="2">
+      <c r="F243" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G243" t="s" s="2">
+      <c r="G243" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H243" t="s" s="2">
+      <c r="H243" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7178,28 +7202,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="B245" t="s" s="2">
+      <c r="B245" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C245" t="s" s="2">
+      <c r="C245" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D245" t="s" s="2">
+      <c r="D245" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E245" t="s" s="2">
+      <c r="E245" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F245" t="s" s="2">
+      <c r="F245" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G245" t="s" s="2">
+      <c r="G245" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H245" t="s" s="2">
+      <c r="H245" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I245" t="s" s="2">
+      <c r="I245" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7287,10 +7311,10 @@
       <c r="I248">
         <f>((C248-C247)^2+(D248- D247)^2)^.5</f>
       </c>
-      <c r="J248" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K248" s="2" t="s">
+      <c r="J248" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K248" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L248" t="n">
@@ -7334,28 +7358,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="s" s="2">
+      <c r="A250" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B250" t="s" s="2">
+      <c r="B250" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C250" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D250" t="s" s="2">
+      <c r="C250" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D250" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E250" t="s" s="2">
+      <c r="E250" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F250" t="s" s="2">
+      <c r="F250" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G250" t="s" s="2">
+      <c r="G250" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H250" t="s" s="2">
+      <c r="H250" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7380,28 +7404,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="B252" t="s" s="2">
+      <c r="B252" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C252" t="s" s="2">
+      <c r="C252" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D252" t="s" s="2">
+      <c r="D252" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E252" t="s" s="2">
+      <c r="E252" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F252" t="s" s="2">
+      <c r="F252" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G252" t="s" s="2">
+      <c r="G252" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H252" t="s" s="2">
+      <c r="H252" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I252" t="s" s="2">
+      <c r="I252" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7518,10 +7542,10 @@
       <c r="I256">
         <f>((C256-C255)^2+(D256- D255)^2)^.5</f>
       </c>
-      <c r="J256" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K256" s="2" t="s">
+      <c r="J256" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K256" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L256" t="n">
@@ -7565,28 +7589,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="s" s="2">
+      <c r="A258" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B258" t="s" s="2">
+      <c r="B258" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C258" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D258" t="s" s="2">
+      <c r="C258" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D258" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E258" t="s" s="2">
+      <c r="E258" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F258" t="s" s="2">
+      <c r="F258" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G258" t="s" s="2">
+      <c r="G258" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H258" t="s" s="2">
+      <c r="H258" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7611,28 +7635,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="B260" t="s" s="2">
+      <c r="B260" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C260" t="s" s="2">
+      <c r="C260" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D260" t="s" s="2">
+      <c r="D260" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E260" t="s" s="2">
+      <c r="E260" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F260" t="s" s="2">
+      <c r="F260" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G260" t="s" s="2">
+      <c r="G260" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H260" t="s" s="2">
+      <c r="H260" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I260" t="s" s="2">
+      <c r="I260" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7720,10 +7744,10 @@
       <c r="I263">
         <f>((C263-C262)^2+(D263- D262)^2)^.5</f>
       </c>
-      <c r="J263" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K263" s="2" t="s">
+      <c r="J263" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K263" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L263" t="n">
@@ -7767,28 +7791,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="s" s="2">
+      <c r="A265" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B265" t="s" s="2">
+      <c r="B265" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C265" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D265" t="s" s="2">
+      <c r="C265" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D265" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E265" t="s" s="2">
+      <c r="E265" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F265" t="s" s="2">
+      <c r="F265" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G265" t="s" s="2">
+      <c r="G265" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H265" t="s" s="2">
+      <c r="H265" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7813,28 +7837,28 @@
       </c>
     </row>
     <row r="267">
-      <c r="B267" t="s" s="2">
+      <c r="B267" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C267" t="s" s="2">
+      <c r="C267" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D267" t="s" s="2">
+      <c r="D267" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E267" t="s" s="2">
+      <c r="E267" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F267" t="s" s="2">
+      <c r="F267" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G267" t="s" s="2">
+      <c r="G267" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H267" t="s" s="2">
+      <c r="H267" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I267" t="s" s="2">
+      <c r="I267" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7922,10 +7946,10 @@
       <c r="I270">
         <f>((C270-C269)^2+(D270- D269)^2)^.5</f>
       </c>
-      <c r="J270" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K270" s="2" t="s">
+      <c r="J270" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K270" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L270" t="n">
@@ -7969,28 +7993,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="s" s="2">
+      <c r="A272" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B272" t="s" s="2">
+      <c r="B272" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C272" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D272" t="s" s="2">
+      <c r="C272" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D272" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E272" t="s" s="2">
+      <c r="E272" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F272" t="s" s="2">
+      <c r="F272" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G272" t="s" s="2">
+      <c r="G272" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H272" t="s" s="2">
+      <c r="H272" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8015,28 +8039,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="B274" t="s" s="2">
+      <c r="B274" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C274" t="s" s="2">
+      <c r="C274" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D274" t="s" s="2">
+      <c r="D274" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E274" t="s" s="2">
+      <c r="E274" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F274" t="s" s="2">
+      <c r="F274" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G274" t="s" s="2">
+      <c r="G274" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H274" t="s" s="2">
+      <c r="H274" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I274" t="s" s="2">
+      <c r="I274" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8153,10 +8177,10 @@
       <c r="I278">
         <f>((C278-C277)^2+(D278- D277)^2)^.5</f>
       </c>
-      <c r="J278" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K278" s="2" t="s">
+      <c r="J278" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K278" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L278" t="n">
@@ -8200,28 +8224,28 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="s" s="2">
+      <c r="A280" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B280" t="s" s="2">
+      <c r="B280" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C280" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D280" t="s" s="2">
+      <c r="C280" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D280" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E280" t="s" s="2">
+      <c r="E280" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F280" t="s" s="2">
+      <c r="F280" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G280" t="s" s="2">
+      <c r="G280" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H280" t="s" s="2">
+      <c r="H280" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8246,28 +8270,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="B282" t="s" s="2">
+      <c r="B282" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C282" t="s" s="2">
+      <c r="C282" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D282" t="s" s="2">
+      <c r="D282" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E282" t="s" s="2">
+      <c r="E282" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F282" t="s" s="2">
+      <c r="F282" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G282" t="s" s="2">
+      <c r="G282" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H282" t="s" s="2">
+      <c r="H282" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I282" t="s" s="2">
+      <c r="I282" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8355,10 +8379,10 @@
       <c r="I285">
         <f>((C285-C284)^2+(D285- D284)^2)^.5</f>
       </c>
-      <c r="J285" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K285" s="2" t="s">
+      <c r="J285" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K285" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L285" t="n">
@@ -8402,28 +8426,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="s" s="2">
+      <c r="A287" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B287" t="s" s="2">
+      <c r="B287" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C287" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D287" t="s" s="2">
+      <c r="C287" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D287" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E287" t="s" s="2">
+      <c r="E287" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F287" t="s" s="2">
+      <c r="F287" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G287" t="s" s="2">
+      <c r="G287" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H287" t="s" s="2">
+      <c r="H287" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8448,28 +8472,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="B289" t="s" s="2">
+      <c r="B289" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C289" t="s" s="2">
+      <c r="C289" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D289" t="s" s="2">
+      <c r="D289" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E289" t="s" s="2">
+      <c r="E289" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F289" t="s" s="2">
+      <c r="F289" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G289" t="s" s="2">
+      <c r="G289" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H289" t="s" s="2">
+      <c r="H289" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I289" t="s" s="2">
+      <c r="I289" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8557,10 +8581,10 @@
       <c r="I292">
         <f>((C292-C291)^2+(D292- D291)^2)^.5</f>
       </c>
-      <c r="J292" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K292" s="2" t="s">
+      <c r="J292" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K292" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L292" t="n">
@@ -8604,28 +8628,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="s" s="2">
+      <c r="A294" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B294" t="s" s="2">
+      <c r="B294" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C294" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D294" t="s" s="2">
+      <c r="C294" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D294" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E294" t="s" s="2">
+      <c r="E294" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F294" t="s" s="2">
+      <c r="F294" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G294" t="s" s="2">
+      <c r="G294" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H294" t="s" s="2">
+      <c r="H294" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8650,28 +8674,28 @@
       </c>
     </row>
     <row r="296">
-      <c r="B296" t="s" s="2">
+      <c r="B296" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C296" t="s" s="2">
+      <c r="C296" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D296" t="s" s="2">
+      <c r="D296" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E296" t="s" s="2">
+      <c r="E296" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F296" t="s" s="2">
+      <c r="F296" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G296" t="s" s="2">
+      <c r="G296" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H296" t="s" s="2">
+      <c r="H296" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I296" t="s" s="2">
+      <c r="I296" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8759,10 +8783,10 @@
       <c r="I299">
         <f>((C299-C298)^2+(D299- D298)^2)^.5</f>
       </c>
-      <c r="J299" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K299" s="2" t="s">
+      <c r="J299" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K299" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L299" t="n">
@@ -8806,28 +8830,28 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" t="s" s="2">
+      <c r="A301" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B301" t="s" s="2">
+      <c r="B301" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C301" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D301" t="s" s="2">
+      <c r="C301" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D301" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E301" t="s" s="2">
+      <c r="E301" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F301" t="s" s="2">
+      <c r="F301" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G301" t="s" s="2">
+      <c r="G301" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H301" t="s" s="2">
+      <c r="H301" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8852,28 +8876,28 @@
       </c>
     </row>
     <row r="303">
-      <c r="B303" t="s" s="2">
+      <c r="B303" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C303" t="s" s="2">
+      <c r="C303" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D303" t="s" s="2">
+      <c r="D303" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E303" t="s" s="2">
+      <c r="E303" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F303" t="s" s="2">
+      <c r="F303" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G303" t="s" s="2">
+      <c r="G303" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H303" t="s" s="2">
+      <c r="H303" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I303" t="s" s="2">
+      <c r="I303" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8961,10 +8985,10 @@
       <c r="I306">
         <f>((C306-C305)^2+(D306- D305)^2)^.5</f>
       </c>
-      <c r="J306" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K306" s="2" t="s">
+      <c r="J306" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K306" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L306" t="n">
@@ -9008,28 +9032,28 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" t="s" s="2">
+      <c r="A308" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B308" t="s" s="2">
+      <c r="B308" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C308" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D308" t="s" s="2">
+      <c r="C308" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D308" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E308" t="s" s="2">
+      <c r="E308" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F308" t="s" s="2">
+      <c r="F308" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G308" t="s" s="2">
+      <c r="G308" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H308" t="s" s="2">
+      <c r="H308" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -9054,28 +9078,28 @@
       </c>
     </row>
     <row r="310">
-      <c r="B310" t="s" s="2">
+      <c r="B310" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C310" t="s" s="2">
+      <c r="C310" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D310" t="s" s="2">
+      <c r="D310" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E310" t="s" s="2">
+      <c r="E310" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F310" t="s" s="2">
+      <c r="F310" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G310" t="s" s="2">
+      <c r="G310" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H310" t="s" s="2">
+      <c r="H310" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I310" t="s" s="2">
+      <c r="I310" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -9163,10 +9187,10 @@
       <c r="I313">
         <f>((C313-C312)^2+(D313- D312)^2)^.5</f>
       </c>
-      <c r="J313" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K313" s="2" t="s">
+      <c r="J313" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K313" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L313" t="n">
@@ -9210,28 +9234,28 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" t="s" s="2">
+      <c r="A315" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B315" t="s" s="2">
+      <c r="B315" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C315" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D315" t="s" s="2">
+      <c r="C315" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D315" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E315" t="s" s="2">
+      <c r="E315" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F315" t="s" s="2">
+      <c r="F315" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G315" t="s" s="2">
+      <c r="G315" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H315" t="s" s="2">
+      <c r="H315" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -9256,28 +9280,28 @@
       </c>
     </row>
     <row r="317">
-      <c r="B317" t="s" s="2">
+      <c r="B317" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C317" t="s" s="2">
+      <c r="C317" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D317" t="s" s="2">
+      <c r="D317" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E317" t="s" s="2">
+      <c r="E317" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F317" t="s" s="2">
+      <c r="F317" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G317" t="s" s="2">
+      <c r="G317" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H317" t="s" s="2">
+      <c r="H317" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I317" t="s" s="2">
+      <c r="I317" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -9365,10 +9389,10 @@
       <c r="I320">
         <f>((C320-C319)^2+(D320- D319)^2)^.5</f>
       </c>
-      <c r="J320" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K320" s="2" t="s">
+      <c r="J320" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K320" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L320" t="n">
@@ -9412,28 +9436,28 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" t="s" s="2">
+      <c r="A322" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B322" t="s" s="2">
+      <c r="B322" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C322" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D322" t="s" s="2">
+      <c r="C322" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D322" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E322" t="s" s="2">
+      <c r="E322" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F322" t="s" s="2">
+      <c r="F322" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G322" t="s" s="2">
+      <c r="G322" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H322" t="s" s="2">
+      <c r="H322" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -9458,28 +9482,28 @@
       </c>
     </row>
     <row r="324">
-      <c r="B324" t="s" s="2">
+      <c r="B324" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C324" t="s" s="2">
+      <c r="C324" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D324" t="s" s="2">
+      <c r="D324" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E324" t="s" s="2">
+      <c r="E324" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F324" t="s" s="2">
+      <c r="F324" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G324" t="s" s="2">
+      <c r="G324" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H324" t="s" s="2">
+      <c r="H324" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I324" t="s" s="2">
+      <c r="I324" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -9567,10 +9591,10 @@
       <c r="I327">
         <f>((C327-C326)^2+(D327- D326)^2)^.5</f>
       </c>
-      <c r="J327" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K327" s="2" t="s">
+      <c r="J327" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K327" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L327" t="n">
@@ -9614,28 +9638,28 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" t="s" s="2">
+      <c r="A329" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B329" t="s" s="2">
+      <c r="B329" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C329" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D329" t="s" s="2">
+      <c r="C329" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D329" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E329" t="s" s="2">
+      <c r="E329" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F329" t="s" s="2">
+      <c r="F329" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G329" t="s" s="2">
+      <c r="G329" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H329" t="s" s="2">
+      <c r="H329" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -9660,28 +9684,28 @@
       </c>
     </row>
     <row r="331">
-      <c r="B331" t="s" s="2">
+      <c r="B331" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C331" t="s" s="2">
+      <c r="C331" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D331" t="s" s="2">
+      <c r="D331" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E331" t="s" s="2">
+      <c r="E331" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F331" t="s" s="2">
+      <c r="F331" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G331" t="s" s="2">
+      <c r="G331" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H331" t="s" s="2">
+      <c r="H331" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I331" t="s" s="2">
+      <c r="I331" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -9769,10 +9793,10 @@
       <c r="I334">
         <f>((C334-C333)^2+(D334- D333)^2)^.5</f>
       </c>
-      <c r="J334" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K334" s="2" t="s">
+      <c r="J334" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K334" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L334" t="n">
@@ -9816,28 +9840,28 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" t="s" s="2">
+      <c r="A336" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B336" t="s" s="2">
+      <c r="B336" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C336" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D336" t="s" s="2">
+      <c r="C336" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D336" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E336" t="s" s="2">
+      <c r="E336" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F336" t="s" s="2">
+      <c r="F336" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G336" t="s" s="2">
+      <c r="G336" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H336" t="s" s="2">
+      <c r="H336" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -9862,28 +9886,28 @@
       </c>
     </row>
     <row r="338">
-      <c r="B338" t="s" s="2">
+      <c r="B338" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C338" t="s" s="2">
+      <c r="C338" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D338" t="s" s="2">
+      <c r="D338" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E338" t="s" s="2">
+      <c r="E338" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F338" t="s" s="2">
+      <c r="F338" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G338" t="s" s="2">
+      <c r="G338" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H338" t="s" s="2">
+      <c r="H338" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I338" t="s" s="2">
+      <c r="I338" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -9942,10 +9966,10 @@
       <c r="I340">
         <f>((C340-C339)^2+(D340- D339)^2)^.5</f>
       </c>
-      <c r="J340" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K340" s="2" t="s">
+      <c r="J340" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K340" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L340" t="n">
@@ -9989,28 +10013,28 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="s" s="2">
+      <c r="A342" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B342" t="s" s="2">
+      <c r="B342" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C342" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D342" t="s" s="2">
+      <c r="C342" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D342" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E342" t="s" s="2">
+      <c r="E342" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F342" t="s" s="2">
+      <c r="F342" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G342" t="s" s="2">
+      <c r="G342" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H342" t="s" s="2">
+      <c r="H342" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -10035,28 +10059,28 @@
       </c>
     </row>
     <row r="344">
-      <c r="B344" t="s" s="2">
+      <c r="B344" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C344" t="s" s="2">
+      <c r="C344" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D344" t="s" s="2">
+      <c r="D344" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E344" t="s" s="2">
+      <c r="E344" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F344" t="s" s="2">
+      <c r="F344" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G344" t="s" s="2">
+      <c r="G344" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H344" t="s" s="2">
+      <c r="H344" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I344" t="s" s="2">
+      <c r="I344" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -10115,10 +10139,10 @@
       <c r="I346">
         <f>((C346-C345)^2+(D346- D345)^2)^.5</f>
       </c>
-      <c r="J346" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K346" s="2" t="s">
+      <c r="J346" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K346" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L346" t="n">
